--- a/biology/Zoologie/Amytis_natté/Amytis_natté.xlsx
+++ b/biology/Zoologie/Amytis_natté/Amytis_natté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amytis_natt%C3%A9</t>
+          <t>Amytis_natté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amytornis textilis
 L’Amytis natté (Amytornis textilis) est une espèce de passereau de la famille des Maluridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amytis_natt%C3%A9</t>
+          <t>Amytis_natté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique d'Australie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amytis_natt%C3%A9</t>
+          <t>Amytis_natté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les zones de broussailles de type méditerranéen.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amytis_natt%C3%A9</t>
+          <t>Amytis_natté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut collecté, tout comme le Mérion leucoptère, par les naturalistes français Jean René Constant Quoy et Joseph Paul Gaimard en septembre 1818, lors du voyage de Louis de Freycinet autour de l'hémisphère Sud, et fut décrit sous le protonyme de Malurus textilis et le nom vernaculaire de « Mérion natté ».
 D'après Alan P. Peterson, il en existe 2 sous-espèces :
